--- a/database/insert文/トップ.xlsx
+++ b/database/insert文/トップ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -48,11 +48,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INSERT INTO top_event VALUES (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ大会</t>
+    <rPh sb="4" eb="6">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンキャンパス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -418,17 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -453,18 +460,31 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE(A1,A3,C1,D1,B3,D1,B1)</f>
-        <v>INSERT INTO top_event VALUES (0,"aaaaa");</v>
+        <f>CONCATENATE($A$1,A3,$C$1,$D$1,B3,$D$1,$B$1)</f>
+        <v>INSERT INTO top_event VALUES (1,"スポーツ大会");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE($A$1,A4,$C$1,$D$1,B4,$D$1,$B$1)</f>
+        <v>INSERT INTO top_event VALUES (2,"オープンキャンパス");</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>